--- a/input_data/data_ground_truth_02_no_scenario/descricao.xlsx
+++ b/input_data/data_ground_truth_02_no_scenario/descricao.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Produção e comercialização de alimentos</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensibilidade do sistema socioecológico quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca.</t>
+    <t xml:space="preserve">Capacidade do sistema socioecológico de se ajustar a possíveis ameaças climáticas de seca teste 2.</t>
   </si>
   <si>
     <t xml:space="preserve">Sensibilidade do sistema quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca. Essa informação é resultante da composição dos indicadores: baixa produção de alimentos básicos e não diversificação da produção local.&lt;br&gt;&lt;br&gt;Fonte:&lt;br&gt;Sistema de Informações e Análises sobre Impactos das Mudanças Climáticas – AdaptaBrasil MCTI.</t>
@@ -410,12 +410,12 @@
   <dimension ref="A1:X866"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.42"/>
